--- a/results/result_evaluation_logs/B_Task_Modularisation.xlsx
+++ b/results/result_evaluation_logs/B_Task_Modularisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,22 +560,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -605,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>2</v>
@@ -626,15 +626,16 @@
         <is>
           <t xml:space="preserve">
 @prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
-wd:Q25095540 wd:P175 wd:Q364841.
+wd:Q364841 wd:P175 wd:Q25095540.
 wd:Q25095540 wd:P264 wd:Q1516254.
-wd:Q364841 wd:P740 wd:Q1516254.
+wd:Q25095540 wd:P50 wd:Q364841.
+wd:Q1516254 wd:P213 wd:Q25095540.
 </t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>f7a3eb37-8c16-4382-8d72-8b9e22b13fe9</t>
+          <t>0d5b165a-66d8-44c2-a680-a75dc255ac56</t>
         </is>
       </c>
     </row>
@@ -655,10 +656,10 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -667,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -688,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>2</v>
@@ -697,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>3</v>
@@ -709,19 +710,4345 @@
         <is>
           <t xml:space="preserve">
 @prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
-wd:Q20992419 wd:P31 wd:Q20992419 .
-wd:Q20992419 wd:P31 wd:Q829758 .
-wd:Q20992419 wd:P834 wd:Q17516 .
+wd:Q20992419 wd:P31 wd:Q17516 .
 wd:Q20992419 wd:P585 wd:Q120 .
-wd:Q829758 wd:P828 wd:Q20992419 .
-wd:Q17516 wd:P162 wd:Q20992419 .
-wd:Q120 wd:P834 wd:Q20992419 .
 </t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2a0a2650-9614-4650-aa7c-540919447789</t>
+          <t>535c0635-ab84-4cd0-8e74-f33e5fed1cce</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q466774 wd:P27 wd:Q142 .
+wd:Q466774 wd:P106 wd:Q67283198 .
+wd:Q466774 wd:P108 wd:Q273626 .
+wd:Q466774 wd:P184 wd:Q370496 .
+wd:Q273626 wd:P108 wd:Q466774 .
+wd:Q370496 wd:P106 wd:Q67283198 .
+wd:Q370496 wd:P2699 wd:Q273626 .
+</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>d4bb1cfc-ebbc-4991-a967-9f97a33061a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>68a50316-3ab5-4f19-b9f2-e134a639da8d</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q36771 wd:P19 wd:Q29999.
+wd:Q36771 wd:P27 wd:Q55.
+wd:Q36771 wd:P106 wd:Q49733.
+wd:Q36771 wd:P800 wd:Q18609354.
+wd:Q18609354 wd:P50 wd:Q36771.
+wd:Q36771 wd:P102 wd:Q838795.
+</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>7b68ce54-4c4a-4b30-af51-5415a0c5d3a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q506252 wd:P31 wd:Q2095.
+wd:Q506252 wd:P1037 wd:Q192786.
+wd:Q506252 wd:P31 wd:Q856586.
+wd:Q506252 wd:P1037 wd:Q177.
+wd:Q177 wd:P31 wd:Q2095.
+wd:Q177 wd:P361 wd:Q192786.
+</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>50545627-ed64-4394-b2ab-4dd1cd9d2c73</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q2226643 wd:P138 wd:Q28937.
+wd:Q2226643 wd:P31 wd:Q65943.
+</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>4bfd889c-8cdb-4f1d-944c-f92b6887bb4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8280 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 78, in &lt;module&gt;
+    response = graph.invoke({"text": text, "results": [], "call_trace": [], "comments": [], "debug": False},
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2683, in invoke
+    for chunk in self.stream(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2331, in stream
+    for _ in runner.tick(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/runner.py", line 146, in tick
+    run_with_retry(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/retry.py", line 40, in run_with_retry
+    return task.proc.invoke(task.input, config)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 606, in invoke
+    input = step.invoke(input, config, **kwargs)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 371, in invoke
+    ret = context.run(self.func, *args, **kwargs)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/results/B_Task_Modularisation/agents/agent_instructor.py", line 22, in agent
+    response = response_chain.invoke(state, config=config)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/runnables/base.py", line 3025, in invoke
+    input = context.run(step.invoke, input, config)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 307, in invoke
+    self.generate_prompt(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 843, in generate_prompt
+    return self.generate(prompt_messages, stop=stop, callbacks=callbacks, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 683, in generate
+    self._generate_with_cache(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 908, in _generate_with_cache
+    result = self._generate(
+             ^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_openai/chat_models/base.py", line 955, in _generate
+    response = self.client.create(**payload)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_utils/_utils.py", line 279, in wrapper
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/resources/chat/completions/completions.py", line 914, in create
+    return self._post(
+           ^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1242, in post
+    return cast(ResponseT, self.request(cast_to, opts, stream=stream, stream_cls=stream_cls))
+                           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 919, in request
+    return self._request(
+           ^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1023, in _request
+    raise self._make_status_error_from_response(err.response) from None
+openai.BadRequestError: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8280 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+During task with name 'agent_instructor_agent' and id '8a0248f4-d090-d6b8-04bd-f8d68c68de19'
+</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>56595eb8-2c18-4c7a-9ee5-e5639178e0d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q6782514 wd:P131 wd:Q1364658.
+wd:Q1364658 wd:P131 wd:Q924.
+wd:Q924 wd:P30 wd:Q15.
+wd:Q924 wd:P269 wd:Q682181.
+wd:Q423 wd:P269 wd:Q682181.
+wd:Q924 wd:P37 wd:Q7838.
+wd:Q924 wd:P35 wd:Q7241291.
+wd:Q1364658 wd:P131 wd:Q924.
+wd:Q6782514 wd:P131 wd:Q924.
+</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>4f8faee5-1b15-4874-9c10-362646ea6ffc</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q85563 wd:P26 wd:Q183.
+wd:Q85563 wd:P40 wd:Q58284.
+wd:Q85563 wd:P1038 wd:Q5.
+wd:Q85563 wd:P91 wd:Q242493.
+wd:Q85563 wd:P184 wd:Q1076618.
+wd:Q85563 wd:P1038 wd:Q10833314.
+wd:Q85563 wd:P3373 wd:Q913447.
+wd:Q85563 wd:P3373 wd:Q1220357.
+wd:Q85563 wd:P166 wd:Q58284.
+</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>441f8436-7bc0-441f-83e2-869c98771fdd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error parsing turtle string: Error: at line 5 of &lt;&gt;:
+Bad syntax (Prefix "wdt:" not bound) at ^ in:
+"...b'.org/entity/&gt; .\n\nwd:Q5395743 wd:P407 wd:Q1321 .\nwd:Q5395743 '^b'wdt:P495 wd:Q96 .\n'"
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 82, in &lt;module&gt;
+    score = calculate_scores_from_array(evaluate_doc(turtle_string=turtle_string, doc_id=doc_id,
+                                        ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/helper_tools/evaluation.py", line 168, in evaluate_doc
+    raise ValueError(f"Error parsing turtle string: {error}")
+ValueError: Error parsing turtle string: Error: at line 5 of &lt;&gt;:
+Bad syntax (Prefix "wdt:" not bound) at ^ in:
+"...b'.org/entity/&gt; .\n\nwd:Q5395743 wd:P407 wd:Q1321 .\nwd:Q5395743 '^b'wdt:P495 wd:Q96 .\n'"
+</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>f6819c92-1571-470d-94c3-cc0eb8af1151</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q271108 wd:P607 wd:Q516760.
+wd:Q516760 wd:P276 wd:Q1605654.
+</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>c5c78be8-7659-44dd-8db2-69f84a275994</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q7992209 wd:P1269 wd:Q3561541 .
+wd:Q3561541 wd:P200 wd:Q5364109 .
+wd:Q7992209 wd:P915 wd:Q3561541 .
+wd:Q3561541 wd:P403 wd:Q5364109 .
+wd:Q5364109 wd:P403 wd:Q3561541 .
+wd:Q7992209 wd:P749 wd:Q5364109 .
+wd:Q7992209 wd:P169 wd:Q3561541 .
+</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>6cd4e8c0-af08-439f-a90d-5427cb5f74f3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>e7b6c99d-21f7-4c3c-96b2-55b181c292e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q3311362 wd:P131 wd:Q66117.
+wd:Q3311362 wd:P31 wd:Q3957.
+wd:Q66117 wd:P150 wd:Q3311362.
+</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>b8c495b3-b433-4976-b8d4-a4071427a859</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q7044514 wd:P31 wd:Q7366 .
+wd:Q7044514 wd:P175 wd:Q234199 .
+wd:Q234199 wd:P106 wd:Q56703088 .
+wd:Q234199 wd:P27 wd:Q33 .
+wd:Q234199 wd:P1037 wd:Q7044514 .
+wd:Q7044514 wd:P136 wd:Q211627 .
+wd:Q7044514 wd:P175 wd:Q234199 .
+wd:Q234199 wd:P1411 wd:Q7044514 .
+</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>d0275e2c-0412-488e-8c72-3c782860f453</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q607380 wd:P138 wd:Q664.
+wd:Q607380 wd:P1266 wd:Q782.
+wd:Q607380 wd:P527 wd:Q12345678.
+wd:Q12345678 wd:P2548 wd:Q6933370.
+</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>a0f27e07-d36e-4be4-ab39-da4be0581ff2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q5686841 wd:P131 wd:Q794.
+wd:Q308864 wd:P131 wd:Q5686841.
+wd:Q928828 wd:P131 wd:Q5686841.
+wd:Q1282219 wd:P131 wd:Q5686841.
+wd:Q5686841 wd:P131 wd:Q794.
+wd:Q308864 wd:P131 wd:Q794.
+wd:Q928828 wd:P131 wd:Q794.
+wd:Q1282219 wd:P131 wd:Q794.
+</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>97eaaed0-14b2-4cd3-825d-601b4684e1f1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q20671544 wd:P106 wd:Q28324 .
+wd:Q20671544 wd:P27 wd:Q40 .
+wd:Q20671544 wd:P106 wd:Q638522 .
+</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>09dbd97d-317e-413e-beaa-dca5eb24f72a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q3048624 wd:P19 wd:Q16.
+wd:Q3048624 wd:P27 wd:Q16.
+wd:Q3048624 wd:P141 wd:Q1860.
+wd:Q81056 wd:P154 wd:Q16.
+wd:Q16 wd:P154 wd:Q81056.
+wd:Q16 wd:P237 wd:Q41549.
+wd:Q41549 wd:P237 wd:Q16.
+wd:Q16 wd:P122 wd:Q41614.
+</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>568fa2db-e042-4e95-bdb9-af2464e3a490</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q395 wd:P361 wd:Q17052475.
+wd:Q17052475 wd:P31 wd:Q11348.
+wd:Q11348 wd:P1344 wd:Q395.
+</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>a7a81838-33a3-416b-a0bc-129dc51f8a61</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q18036690 wd:P659 wd:Q430258.
+wd:Q18036690 wd:P828 wd:Q12174.
+wd:Q18036690 wd:P407 wd:Q15978631.
+wd:Q18036690 wd:P682 wd:Q11387.
+wd:Q18036690 wd:P682 wd:Q503447.
+wd:Q18036690 wd:P688 wd:Q271124.
+</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>b3a380cc-f268-4f0a-bfbe-549581717204</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q188197 wd:P2522 wd:Q1856183 .
+wd:Q188197 wd:P2522 wd:Q674962 .
+</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>8f828902-dcb1-4dd6-910b-9acd1e6a55f4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q5554167 wd:P50 wd:Q16239205.
+wd:Q5554167 wd:P161 wd:Q520445.
+wd:Q5554167 wd:P387 wd:Q220072.
+wd:Q16239205 wd:P800 wd:Q5554167.
+wd:Q520445 wd:P1830 wd:Q5554167.
+wd:Q220072 wd:P387 wd:Q5554167.
+wd:Q5554167 wd:P31 wd:Q11424.
+</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>024bbe77-4d3a-4c7d-9665-127867ce2bda</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>7</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8210 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 78, in &lt;module&gt;
+    response = graph.invoke({"text": text, "results": [], "call_trace": [], "comments": [], "debug": False},
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2683, in invoke
+    for chunk in self.stream(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2331, in stream
+    for _ in runner.tick(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/runner.py", line 146, in tick
+    run_with_retry(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/retry.py", line 40, in run_with_retry
+    return task.proc.invoke(task.input, config)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 606, in invoke
+    input = step.invoke(input, config, **kwargs)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 371, in invoke
+    ret = context.run(self.func, *args, **kwargs)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/results/B_Task_Modularisation/agents/planner.py", line 20, in agent
+    response = response_chain.invoke(state, config=config)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/runnables/base.py", line 3025, in invoke
+    input = context.run(step.invoke, input, config)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 307, in invoke
+    self.generate_prompt(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 843, in generate_prompt
+    return self.generate(prompt_messages, stop=stop, callbacks=callbacks, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 683, in generate
+    self._generate_with_cache(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 908, in _generate_with_cache
+    result = self._generate(
+             ^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_openai/chat_models/base.py", line 955, in _generate
+    response = self.client.create(**payload)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_utils/_utils.py", line 279, in wrapper
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/resources/chat/completions/completions.py", line 914, in create
+    return self._post(
+           ^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1242, in post
+    return cast(ResponseT, self.request(cast_to, opts, stream=stream, stream_cls=stream_cls))
+                           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 919, in request
+    return self._request(
+           ^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1023, in _request
+    raise self._make_status_error_from_response(err.response) from None
+openai.BadRequestError: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8210 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+During task with name 'planner' and id '8e0588c2-fc6a-d021-06af-6e57b0efe625'
+</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>1bd6e099-f738-4bd8-af53-0642101c5a33</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3</v>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q2094579 wd:P50 wd:Q5546527 .
+wd:Q2094579 wd:P577 wd:Q1860 .
+wd:Q5546527 wd:P141 wd:Q8229 .
+</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>27cb0914-7749-4ee2-8459-8266852d8936</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q22082365 wd:P131 wd:Q965.
+wd:Q965 wd:P463 wd:Q47543.
+</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>c6ad828c-69be-4635-ad8d-8a04e44fce5d</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q16926803 wd:P301 wd:Q6811747.
+wd:Q16926803 wd:P301 wd:Q6762533.
+wd:Q16926803 wd:P137 wd:Q8062829.
+wd:Q6811747 wd:P361 wd:Q405.
+wd:Q6762533 wd:P361 wd:Q370.
+wd:Q370 wd:P361 wd:Q408.
+</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>4e32ca14-e3d9-4767-9fca-2d7e94da5dd6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8373 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 78, in &lt;module&gt;
+    response = graph.invoke({"text": text, "results": [], "call_trace": [], "comments": [], "debug": False},
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2683, in invoke
+    for chunk in self.stream(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2331, in stream
+    for _ in runner.tick(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/runner.py", line 146, in tick
+    run_with_retry(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/retry.py", line 40, in run_with_retry
+    return task.proc.invoke(task.input, config)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 606, in invoke
+    input = step.invoke(input, config, **kwargs)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 371, in invoke
+    ret = context.run(self.func, *args, **kwargs)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/results/B_Task_Modularisation/agents/agent_instructor.py", line 22, in agent
+    response = response_chain.invoke(state, config=config)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/runnables/base.py", line 3025, in invoke
+    input = context.run(step.invoke, input, config)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 307, in invoke
+    self.generate_prompt(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 843, in generate_prompt
+    return self.generate(prompt_messages, stop=stop, callbacks=callbacks, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 683, in generate
+    self._generate_with_cache(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 908, in _generate_with_cache
+    result = self._generate(
+             ^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_openai/chat_models/base.py", line 955, in _generate
+    response = self.client.create(**payload)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_utils/_utils.py", line 279, in wrapper
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/resources/chat/completions/completions.py", line 914, in create
+    return self._post(
+           ^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1242, in post
+    return cast(ResponseT, self.request(cast_to, opts, stream=stream, stream_cls=stream_cls))
+                           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 919, in request
+    return self._request(
+           ^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1023, in _request
+    raise self._make_status_error_from_response(err.response) from None
+openai.BadRequestError: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8373 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+During task with name 'agent_instructor_agent' and id '385ec5f3-9a9b-c4e6-fc9a-de7f02e5698f'
+</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>bbafe6c0-5d45-455b-8c1d-488811fe2efe</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q14707624 wd:P947 &lt;http://www.wikidata.org/entity/Q304801&gt; .
+wd:Q14707624 wd:P131 &lt;http://www.wikidata.org/entity/Q60&gt; .
+wd:304801 wd:P131 &lt;http://www.wikidata.org/entity/Q60&gt; .
+wd:Q60 wd:P131 &lt;http://www.wikidata.org/entity/Q30&gt; .
+wd:Q14707624 wd:P947 &lt;http://www.wikidata.org/entity/Q60&gt; .
+</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>70ea20cd-6927-44cb-90fc-adf29fe8b7a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q64876878 wd:P161 wd:Q65090308 .
+wd:Q64876878 wd:P725 wd:Q262170 .
+wd:Q262170 wd:P725 wd:Q64876878 .
+</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>71d01c7a-1730-42d1-a856-2de929bfe633</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q1240173 wd:P131 wd:Q1088790.
+wd:Q1240173 wd:P131 wd:Q16970.
+wd:Q1240173 wd:P131 wd:Q28.
+wd:Q1088790 wd:P131 wd:Q16970.
+wd:Q1088790 wd:P131 wd:Q28.
+wd:Q16970 wd:P131 wd:Q28.
+wd:Q1240173 wd:P136 wd:Q14204231.
+</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>c4b0560e-c074-42c3-82f2-b9b45f4ea7a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error parsing turtle string: Error: at line 5 of &lt;&gt;:
+Bad syntax (Prefix "wdt:" not bound) at ^ in:
+"...b'ata.org/entity/&gt; .\n\nwd:Q822946 wd:P577 wd:2003 .\nwd:Q822946 '^b'wdt:P161 wd:Q1366759 .\nwd:Q822946 wdt:P136 wd:Q130232 .\nwd:Q'..."
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 82, in &lt;module&gt;
+    score = calculate_scores_from_array(evaluate_doc(turtle_string=turtle_string, doc_id=doc_id,
+                                        ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/helper_tools/evaluation.py", line 168, in evaluate_doc
+    raise ValueError(f"Error parsing turtle string: {error}")
+ValueError: Error parsing turtle string: Error: at line 5 of &lt;&gt;:
+Bad syntax (Prefix "wdt:" not bound) at ^ in:
+"...b'ata.org/entity/&gt; .\n\nwd:Q822946 wd:P577 wd:2003 .\nwd:Q822946 '^b'wdt:P161 wd:Q1366759 .\nwd:Q822946 wdt:P136 wd:Q130232 .\nwd:Q'..."
+</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>35fb3282-d270-46a7-94e3-f2e0e459eb05</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q41792848 wd:P162 wd:Q5072388.
+</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>72772f82-bf86-473b-b8b7-c6145520798f</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error parsing turtle string: Error: at line 6 of &lt;&gt;:
+Bad syntax (Prefix "wdt:" not bound) at ^ in:
+"...b'34 wd:P17 wd:Q183.\nwd:Q1490434 wd:P407 wd:Q188.\nwd:Q1490434 '^b'wdt:P31 wd:Q11032.\n'"
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 82, in &lt;module&gt;
+    score = calculate_scores_from_array(evaluate_doc(turtle_string=turtle_string, doc_id=doc_id,
+                                        ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/helper_tools/evaluation.py", line 168, in evaluate_doc
+    raise ValueError(f"Error parsing turtle string: {error}")
+ValueError: Error parsing turtle string: Error: at line 6 of &lt;&gt;:
+Bad syntax (Prefix "wdt:" not bound) at ^ in:
+"...b'34 wd:P17 wd:Q183.\nwd:Q1490434 wd:P407 wd:Q188.\nwd:Q1490434 '^b'wdt:P31 wd:Q11032.\n'"
+</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>831c8a72-1fa6-44e0-b422-235fbae7c6c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3</v>
+      </c>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q2616869 wd:P1433 wd:Q1126800 .
+wd:Q2616869 wd:P6216 wd:Q19652 .
+</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>bd8e1f43-32e1-4216-904e-dcaedf3f77a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="n">
+        <v>5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q6803534 wd:P31 wd:Q1320721 .
+wd:Q6803534 wd:P131 wd:Q1247390 .
+wd:Q1247390 wd:P131 wd:Q145 .
+wd:Q6803534 wd:P131 wd:Q145 .
+wd:Q6803534 wd:P131 wd:Q2169543 .
+wd:Q1247390 wd:P361 wd:Q145 .
+</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>eaa2b116-697f-414c-a4ad-3c36b58ef9f9</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q907827 wd:P27 wd:Q183.
+wd:Q907827 wd:P112 wd:Q7847.
+wd:Q907827 wd:P162 wd:Q7847.
+</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>e228273e-4f70-4fa8-ab07-de461c7e215e</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q1064344 wd:P177 wd:Q1406 .
+wd:Q1406 wd:P184 wd:Q1064344 .
+wd:Q1064344 wd:P831 wd:Q1406 .
+</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>c5f9301c-7ece-4786-a226-c1b3b9a1a50c</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q47554 wd:P1376 wd:Q54153 .
+wd:Q47554 wd:P1618 wd:Q1261531 .
+wd:Q54153 wd:P150 wd:Q47554 .
+wd:Q1261531 wd:P403 wd:Q47554 .
+wd:Q54153 wd:P179 wd:Q1261531 .
+wd:Q47554 wd:P361 wd:Q54153 .
+</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>1c33c092-f894-4822-af96-1c6bfd38aa75</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>6</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7</v>
+      </c>
+      <c r="U42" t="n">
+        <v>7</v>
+      </c>
+      <c r="V42" t="n">
+        <v>6</v>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q54322348 wd:P31 wd:Q82894.
+wd:Q54322348 wd:P131 wd:Q16568.
+wd:Q54322348 wd:P17 wd:Q30.
+wd:Q16568 wd:P131 wd:Q493605.
+wd:Q16568 wd:P6 wd:Q12191.
+wd:Q16568 wd:P6 wd:Q42622.
+wd:Q12191 wd:P6 wd:Q16568.
+wd:Q42622 wd:P6 wd:Q16568.
+wd:Q16568 wd:P36 wd:Q493605.
+wd:Q493605 wd:P162 wd:Q16568.
+</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>abac6594-c89a-4951-9c85-3e61ea80ec51</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+&lt;http://www.wikidata.org/entity/Q87412161&gt; wd:P103 &lt;http://www.wikidata.org/entity/Q5&gt; .
+&lt;http://www.wikidata.org/entity/Q87412161&gt; wd:P107 &lt;http://www.wikidata.org/entity/Q87412161&gt; .
+&lt;http://www.wikidata.org/entity/Q95994024&gt; wd:P103 &lt;http://www.wikidata.org/entity/Q5&gt; .
+&lt;http://www.wikidata.org/entity/Q87412161&gt; wd:P103 &lt;http://www.wikidata.org/entity/Q5&gt; .
+&lt;http://www.wikidata.org/entity/Q87412161&gt; wd:P107 &lt;http://www.wikidata.org/entity/Q95994024&gt; .
+&lt;http://www.wikidata.org/entity/Q95994024&gt; wd:P107 &lt;http://www.wikidata.org/entity/Q87412161&gt; .
+</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>2fe6274c-0de9-4507-aa82-a0c1787eda5f</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q29644512 wd:P27 wd:Q148.
+wd:Q29644512 wd:P569 wd:Q2088358.
+wd:Q29644512 wd:P31 wd:Q783794.
+wd:Q148 wd:P17 wd:Q29644512.
+wd:Q29644512 wd:P3096 wd:Q2088358.
+wd:Q29644512 wd:P159 wd:Q148.
+</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>e6092c62-7f92-4db7-b1a8-1f7fff116796</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>6</v>
+      </c>
+      <c r="R45" t="n">
+        <v>9</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>6</v>
+      </c>
+      <c r="U45" t="n">
+        <v>10</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5</v>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q5288565 wd:P279 wd:Q7368 .
+wd:Q5288565 wd:P495 wd:Q258 .
+wd:Q5288565 wd:P859 wd:Q651765 .
+wd:Q5288565 wd:P460 wd:Q42329 .
+wd:Q5288565 wd:P460 wd:Q2095 .
+wd:Q5288565 wd:P126 wd:Q5288565 .
+wd:Q5288565 wd:P126 wd:Q651765 .
+</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>61b60a3a-1704-4e77-a7ed-92d4b19fdb78</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error parsing turtle string: Error: at line 6 of &lt;&gt;:
+Bad syntax (Prefix "wdt:" not bound) at ^ in:
+"...b'P577 wd:Q734663 .\nwd:Q92560 wd:P162 wd:Q2061122 .\nwd:Q92560 '^b'wdt:P136 wd:Q231302 .\nwd:Q92560 wd:P31 wd:Q56504798 .\n'"
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 82, in &lt;module&gt;
+    score = calculate_scores_from_array(evaluate_doc(turtle_string=turtle_string, doc_id=doc_id,
+                                        ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/helper_tools/evaluation.py", line 168, in evaluate_doc
+    raise ValueError(f"Error parsing turtle string: {error}")
+ValueError: Error parsing turtle string: Error: at line 6 of &lt;&gt;:
+Bad syntax (Prefix "wdt:" not bound) at ^ in:
+"...b'P577 wd:Q734663 .\nwd:Q92560 wd:P162 wd:Q2061122 .\nwd:Q92560 '^b'wdt:P136 wd:Q231302 .\nwd:Q92560 wd:P31 wd:Q56504798 .\n'"
+</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>a3e6e497-56e7-4498-90ba-c776464d6d7b</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="n">
+        <v>6</v>
+      </c>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3</v>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q18036732 wd:P1057 wd:Q753805.
+wd:Q18036732 wd:P31 wd:Q7187.
+wd:Q753805 wd:P361 wd:Q15917541.
+wd:Q18036732 wd:P361 wd:Q15917541.
+wd:Q7187 wd:P1057 wd:P1057.
+wd:P1057 wd:P361 wd:Q5.
+</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>527cace5-9ae5-49d1-a1df-535063e52faf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q977911 wd:P131 wd:Q112686.
+wd:Q979352 wd:P131 wd:Q112686.
+wd:Q977911 wd:P47 wd:Q979352.
+wd:Q979352 wd:P47 wd:Q977911.
+</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>bb6b82b8-54f5-4000-9975-92f6709cc641</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>7</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8367 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 78, in &lt;module&gt;
+    response = graph.invoke({"text": text, "results": [], "call_trace": [], "comments": [], "debug": False},
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2683, in invoke
+    for chunk in self.stream(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2331, in stream
+    for _ in runner.tick(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/runner.py", line 146, in tick
+    run_with_retry(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/retry.py", line 40, in run_with_retry
+    return task.proc.invoke(task.input, config)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 606, in invoke
+    input = step.invoke(input, config, **kwargs)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 371, in invoke
+    ret = context.run(self.func, *args, **kwargs)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/results/B_Task_Modularisation/agents/result_checker.py", line 20, in agent
+    response = response_chain.invoke(state, config=config)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/runnables/base.py", line 3025, in invoke
+    input = context.run(step.invoke, input, config)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 307, in invoke
+    self.generate_prompt(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 843, in generate_prompt
+    return self.generate(prompt_messages, stop=stop, callbacks=callbacks, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 683, in generate
+    self._generate_with_cache(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 908, in _generate_with_cache
+    result = self._generate(
+             ^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_openai/chat_models/base.py", line 955, in _generate
+    response = self.client.create(**payload)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_utils/_utils.py", line 279, in wrapper
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/resources/chat/completions/completions.py", line 914, in create
+    return self._post(
+           ^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1242, in post
+    return cast(ResponseT, self.request(cast_to, opts, stream=stream, stream_cls=stream_cls))
+                           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 919, in request
+    return self._request(
+           ^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1023, in _request
+    raise self._make_status_error_from_response(err.response) from None
+openai.BadRequestError: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8367 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+During task with name 'result_checker_agent' and id 'aa200292-7d16-597f-8fa0-83b9aad1238c'
+</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>bf20c129-8cd1-4c1a-a45a-1172903f440b</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8198 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+Traceback:
+Traceback (most recent call last):
+  File "/home/mlautenb/CIExMAS/./results/B_Task_Modularisation/slurm/agent_system.py", line 78, in &lt;module&gt;
+    response = graph.invoke({"text": text, "results": [], "call_trace": [], "comments": [], "debug": False},
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2683, in invoke
+    for chunk in self.stream(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/__init__.py", line 2331, in stream
+    for _ in runner.tick(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/runner.py", line 146, in tick
+    run_with_retry(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/pregel/retry.py", line 40, in run_with_retry
+    return task.proc.invoke(task.input, config)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 606, in invoke
+    input = step.invoke(input, config, **kwargs)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langgraph/utils/runnable.py", line 371, in invoke
+    ret = context.run(self.func, *args, **kwargs)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/CIExMAS/results/B_Task_Modularisation/agents/agent_instructor.py", line 22, in agent
+    response = response_chain.invoke(state, config=config)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/runnables/base.py", line 3025, in invoke
+    input = context.run(step.invoke, input, config)
+            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 307, in invoke
+    self.generate_prompt(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 843, in generate_prompt
+    return self.generate(prompt_messages, stop=stop, callbacks=callbacks, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 683, in generate
+    self._generate_with_cache(
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_core/language_models/chat_models.py", line 908, in _generate_with_cache
+    result = self._generate(
+             ^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/langchain_openai/chat_models/base.py", line 955, in _generate
+    response = self.client.create(**payload)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_utils/_utils.py", line 279, in wrapper
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/resources/chat/completions/completions.py", line 914, in create
+    return self._post(
+           ^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1242, in post
+    return cast(ResponseT, self.request(cast_to, opts, stream=stream, stream_cls=stream_cls))
+                           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 919, in request
+    return self._request(
+           ^^^^^^^^^^^^^^
+  File "/home/mlautenb/miniconda3/envs/CIExMAS/lib/python3.11/site-packages/openai/_base_client.py", line 1023, in _request
+    raise self._make_status_error_from_response(err.response) from None
+openai.BadRequestError: Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8198 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}
+During task with name 'agent_instructor_agent' and id '08c1a100-23fd-195f-7ade-59edbe44488b'
+</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>0efa8ab8-943f-4d62-b1db-3c1051ae0d64</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2</v>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
+wd:Q2362697 wd:P31 wd:Q11344 .
+wd:Q2362697 wd:P434 wd:Q503601 .
+wd:Q2362697 wd:P527 wd:Q503601 .
+</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>235cfcf9-02ff-464d-b2ea-cdd9f7dd47fb</t>
         </is>
       </c>
     </row>
